--- a/lab3/Исследование.xlsx
+++ b/lab3/Исследование.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ouroboros/Work/neural-networks/lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECC88A0-609A-E641-BB2B-F9B9C1A62DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACBCDEB-61FE-294E-BC5F-8EE99563B6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="22100" windowWidth="28800" windowHeight="15980" activeTab="5" xr2:uid="{DDC1664C-2BAF-2447-9E0A-72EEF4639817}"/>
+    <workbookView xWindow="4660" yWindow="22100" windowWidth="28800" windowHeight="15940" xr2:uid="{DDC1664C-2BAF-2447-9E0A-72EEF4639817}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="1" sheetId="2" r:id="rId2"/>
-    <sheet name="1 (2)" sheetId="3" r:id="rId3"/>
-    <sheet name="1 (3)" sheetId="4" r:id="rId4"/>
-    <sheet name="1 (4)" sheetId="5" r:id="rId5"/>
-    <sheet name="1 (5)" sheetId="6" r:id="rId6"/>
+    <sheet name="Хэбб" sheetId="7" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="1" sheetId="2" r:id="rId3"/>
+    <sheet name="1 (2)" sheetId="3" r:id="rId4"/>
+    <sheet name="1 (3)" sheetId="4" r:id="rId5"/>
+    <sheet name="1 (4)" sheetId="5" r:id="rId6"/>
+    <sheet name="1 (5)" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>Мера сходства 1</t>
   </si>
@@ -74,12 +75,30 @@
   <si>
     <t>Result5</t>
   </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>E'</t>
+  </si>
+  <si>
+    <t>Альфа</t>
+  </si>
+  <si>
+    <t>Х</t>
+  </si>
+  <si>
+    <t>не обучается</t>
+  </si>
+  <si>
+    <t>epsilon=0,05</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +120,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,7 +237,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -7514,6 +7539,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9903B5-F256-B946-ACBA-927DDB75836C}">
+  <dimension ref="B4:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="11">
+        <v>0.15</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41E30DE-A4B9-F846-B653-507EE393D052}">
   <dimension ref="C10:L33"/>
   <sheetViews>
@@ -7611,7 +7745,7 @@
       <c r="G12" s="6">
         <v>15</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>1.2703</v>
       </c>
       <c r="I12" s="8">
@@ -8005,7 +8139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AE0CA3-2B67-6145-86AE-9B559B9DA4E8}">
   <dimension ref="D5:L16"/>
   <sheetViews>
@@ -8082,7 +8216,7 @@
       <c r="H7" s="6">
         <v>15</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>1.2703</v>
       </c>
       <c r="K7" s="1"/>
@@ -8295,7 +8429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76653E76-83CC-5F49-A7AF-A0C48F47ED43}">
   <dimension ref="D5:L16"/>
   <sheetViews>
@@ -8582,7 +8716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D236CEF-6817-3348-B46D-007CFDE3EB2B}">
   <dimension ref="D5:L16"/>
   <sheetViews>
@@ -8869,7 +9003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EFB1D7-577B-2243-AFE9-212E9EE82975}">
   <dimension ref="D5:L16"/>
   <sheetViews>
@@ -9159,11 +9293,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF1687D-0094-D240-910E-CF0533D51690}">
   <dimension ref="D5:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
